--- a/pre/reviews/es/fortunella/3.xlsx
+++ b/pre/reviews/es/fortunella/3.xlsx
@@ -115,7 +115,7 @@
     <t>Madrid, España</t>
   </si>
   <si>
-    <t>Cápsulas para adelgazar</t>
+    <t>Gotas para adelgazar</t>
   </si>
   <si>
     <t>las he usado por primera vez. Durante mucho tiempo intenté bajar de peso haciendo la dieta y el deporte.</t>
@@ -349,7 +349,7 @@
     <t>Las gotas Fortunella son excelentes,</t>
   </si>
   <si>
-    <t>simplemente ideales para mí, ya que no hay absolutamente ningún tiempo para empacar alimentos en contenedores y tampoco puedo comer por hora debido a la ocupacion. Pero aún así, una cápsula para</t>
+    <t>simplemente ideales para mí, ya que no hay absolutamente ningún tiempo para empacar alimentos en contenedores y tampoco puedo comer por hora debido a la ocupacion. Pero aún así, unas gotas para</t>
   </si>
   <si>
     <t>pérdida de peso pronunciada</t>
@@ -379,7 +379,7 @@
     <t>Las gotas son muy buenas</t>
   </si>
   <si>
-    <t>precisamente por su composición. Contiene componentes para perder peso y para restaurar circulacion sanguínea en los intestinos y aumentar el metabolismo. Hablé con muchas amigas, y también notaron que comenzaron a aumentar de peso más rápido después de los 40 años. Personalmente asocio esto con los cambios relacionados con la edad, cuando los procesos internos se ralentizan y es necesario tomar algo que estimule el metabolismo. Ahora ya no tomo cápsulas. Después de un mes, decidí tomar un descanso para el verano. Veré cómo se mantiene el peso. En invierno, planeo comenzar a tomar las gotas de nuevo, para no volver a aumentar kilos de más.</t>
+    <t>precisamente por su composición. Contiene componentes para perder peso y para restaurar circulacion sanguínea en los intestinos y aumentar el metabolismo. Hablé con muchas amigas, y también notaron que comenzaron a aumentar de peso más rápido después de los 40 años. Personalmente asocio esto con los cambios relacionados con la edad, cuando los procesos internos se ralentizan y es necesario tomar algo que estimule el metabolismo. Ahora ya no tomo gotas. Después de un mes, decidí tomar un descanso para el verano. Veré cómo se mantiene el peso. En invierno, planeo comenzar a tomar las gotas de nuevo, para no volver a aumentar kilos de más.</t>
   </si>
   <si>
     <t>Me gustaría un embalaje más elegante</t>
@@ -1912,28 +1912,28 @@
     <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
-    <xf borderId="0" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
-    <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment horizontal="left" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="1" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment readingOrder="0" vertical="bottom"/>
     </xf>
     <xf borderId="1" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
-      <alignment vertical="bottom"/>
-    </xf>
-    <xf borderId="1" fillId="0" fontId="2" numFmtId="49" xfId="0" applyAlignment="1" applyBorder="1" applyFont="1" applyNumberFormat="1">
       <alignment vertical="bottom"/>
     </xf>
     <xf borderId="0" fillId="0" fontId="3" numFmtId="49" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
@@ -2328,12 +2328,12 @@
       </c>
     </row>
     <row r="34" ht="15.75" customHeight="1">
-      <c r="A34" s="3" t="s">
+      <c r="A34" s="7" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="35" ht="15.75" customHeight="1">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2414,7 +2414,7 @@
       </c>
     </row>
     <row r="51" ht="15.75" customHeight="1">
-      <c r="A51" s="7" t="s">
+      <c r="A51" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2449,7 +2449,7 @@
       </c>
     </row>
     <row r="58" ht="15.75" customHeight="1">
-      <c r="A58" s="8" t="s">
+      <c r="A58" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2485,7 +2485,7 @@
       </c>
     </row>
     <row r="65" ht="15.75" customHeight="1">
-      <c r="A65" s="7" t="s">
+      <c r="A65" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2520,7 +2520,7 @@
       </c>
     </row>
     <row r="72" ht="15.75" customHeight="1">
-      <c r="A72" s="8" t="s">
+      <c r="A72" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2540,7 +2540,7 @@
       </c>
     </row>
     <row r="76" ht="15.75" customHeight="1">
-      <c r="A76" s="9">
+      <c r="A76" s="2">
         <f>+987</f>
         <v>987</v>
       </c>
@@ -2581,7 +2581,7 @@
       </c>
     </row>
     <row r="84" ht="15.75" customHeight="1">
-      <c r="A84" s="8" t="s">
+      <c r="A84" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -2631,7 +2631,7 @@
       </c>
     </row>
     <row r="94" ht="15.75" customHeight="1">
-      <c r="A94" s="7" t="s">
+      <c r="A94" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -2706,7 +2706,7 @@
       </c>
     </row>
     <row r="109" ht="15.75" customHeight="1">
-      <c r="A109" s="7" t="s">
+      <c r="A109" s="8" t="s">
         <v>87</v>
       </c>
     </row>
@@ -2871,7 +2871,7 @@
       </c>
     </row>
     <row r="142" ht="15.75" customHeight="1">
-      <c r="A142" s="3" t="s">
+      <c r="A142" s="7" t="s">
         <v>110</v>
       </c>
     </row>
@@ -2951,12 +2951,12 @@
       </c>
     </row>
     <row r="158" ht="15.75" customHeight="1">
-      <c r="A158" s="3" t="s">
+      <c r="A158" s="7" t="s">
         <v>120</v>
       </c>
     </row>
     <row r="159" ht="15.75" customHeight="1">
-      <c r="A159" s="8" t="s">
+      <c r="A159" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3006,7 +3006,7 @@
       </c>
     </row>
     <row r="169" ht="15.75" customHeight="1">
-      <c r="A169" s="7" t="s">
+      <c r="A169" s="8" t="s">
         <v>128</v>
       </c>
     </row>
@@ -3026,7 +3026,7 @@
       </c>
     </row>
     <row r="173" ht="15.75" customHeight="1">
-      <c r="A173" s="8" t="s">
+      <c r="A173" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3076,7 +3076,7 @@
       </c>
     </row>
     <row r="183" ht="15.75" customHeight="1">
-      <c r="A183" s="8" t="s">
+      <c r="A183" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3306,7 +3306,7 @@
       </c>
     </row>
     <row r="229" ht="15.75" customHeight="1">
-      <c r="A229" s="8" t="s">
+      <c r="A229" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3401,7 +3401,7 @@
       </c>
     </row>
     <row r="248" ht="15.75" customHeight="1">
-      <c r="A248" s="7" t="s">
+      <c r="A248" s="8" t="s">
         <v>0</v>
       </c>
     </row>
@@ -3586,7 +3586,7 @@
       </c>
     </row>
     <row r="285" ht="15.75" customHeight="1">
-      <c r="A285" s="8" t="s">
+      <c r="A285" s="9" t="s">
         <v>51</v>
       </c>
     </row>
@@ -3681,7 +3681,7 @@
       </c>
     </row>
     <row r="304" ht="15.75" customHeight="1">
-      <c r="A304" s="7" t="s">
+      <c r="A304" s="8" t="s">
         <v>0</v>
       </c>
     </row>
